--- a/output/laptop_list.xlsx
+++ b/output/laptop_list.xlsx
@@ -448,324 +448,324 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>HP 245 G10 R5 7520U (8F154PA)</t>
+          <t>Gigabyte Gaming G5 MF-F2VN313SH i5 12450H</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>9.990.000 ₫</t>
+          <t>20.490.000 ₫</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Asus TUF Gaming FX506HF-HN017W i5 11400H</t>
+          <t>HP 245 G10 R5 7520U (8F154PA)</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>16.990.000 ₫</t>
+          <t>10.290.000 ₫</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MSI Gaming Thin GF63 12VE-454VN i5 12450H</t>
+          <t>Gigabyte Gaming A5 K1-AVN1030SB R5 5600H</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>20.490.000 ₫</t>
+          <t>17.490.000 ₫</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Dell Inspiron 15 N3520 i5 1235U_N5I5011W1</t>
+          <t>Asus TUF Gaming FX506HF-HN017W i5 11400H</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>15.490.000 ₫</t>
+          <t>16.990.000 ₫</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Asus Vivobook E1404FA-NK186W R5 7520U</t>
+          <t>Gigabyte Gaming G5 KF-E3VN313SH i5 12500H</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>12.390.000 ₫</t>
+          <t>23.490.000 ₫</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Asus TUF Gaming FX507ZC4-HN095W i5 12500H</t>
+          <t>Gigabyte Gaming G5 MF5-H2VN353SH i7 13620H</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>19.490.000 ₫</t>
+          <t>24.490.000 ₫</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Lenovo IdeaPad 3 14IAH8 i5 12450H (83EQ0005VN)</t>
+          <t>Dell Inspiron 15 N3520 i5 1235U_N5I5011W1</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>14.490.000 ₫</t>
+          <t>15.490.000 ₫</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>HP 14s-em0086AU R5 7520U (835T9PA)</t>
+          <t>Gigabyte Gaming G6 KF-H3VN853SH i7-13620H</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>13.290.000 ₫</t>
+          <t>27.990.000 ₫</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>HP Pavilion Aero 13-be2098AU R7 7735U (8C5K5PA)</t>
+          <t>Asus Vivobook E1404FA-NK186W R5 7520U</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>19.490.000 ₫</t>
+          <t>12.490.000 ₫</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Asus Vivobook X1404ZA-NK387W i3 1215U</t>
+          <t>Gigabyte Gaming G5 MF5-52VN353SH i5 13500H</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>9.890.000 ₫</t>
+          <t>22.990.000 ₫</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Acer Aspire 3 A315-44P-R5QG R7-5700U</t>
+          <t>Asus TUF Gaming FX507ZC4-HN095W i5 12500H</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>11.990.000 ₫</t>
+          <t>19.490.000 ₫</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Asus Vivobook M3504YA-L1268W R5 7530U</t>
+          <t>Lenovo IdeaPad 3 14IAH8 i5 12450H (83EQ0005VN)</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>15.190.000 ₫</t>
+          <t>14.490.000 ₫</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Acer Aspire 7 Gaming A715-76-57CY i5 12450H (NH.QGESV.004)</t>
+          <t>HP 14s-em0086AU R5 7520U (835T9PA)</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>12.990.000 ₫</t>
+          <t>13.290.000 ₫</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Asus Vivobook Flip TN3402YA-LZ188W R5 7530U</t>
+          <t>HP Pavilion Aero 13-be2098AU R7 7735U (8C5K5PA)</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>15.690.000 ₫</t>
+          <t>19.490.000 ₫</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Lenovo Ideapad 3 15IAU7 i7 1255U (82RK00W4VN)</t>
+          <t>Asus Vivobook X1404ZA-NK387W i3 1215U</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>15.490.000 ₫</t>
+          <t>9.990.000 ₫</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>HP Pavilion 14-dv2075TU i5 1235U (7C0W2PA)</t>
+          <t>Acer Aspire 3 A315-44P-R5QG R7-5700U</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>15.390.000 ₫</t>
+          <t>11.990.000 ₫</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>MSI Gaming GF63 Thin 11UC-1228VN i7 11800H</t>
+          <t>Asus Vivobook M3504YA-L1268W R5 7530U</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>17.990.000 ₫</t>
+          <t>15.190.000 ₫</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>HP Pavilion 14-dv2073TU i5 1235U (7C0P2PA)</t>
+          <t>Acer Aspire 7 Gaming A715-76-57CY i5 12450H (NH.QGESV.004)</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>17.390.000 ₫</t>
+          <t>12.990.000 ₫</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Asus Vivobook 15 OLED A1505VA-L1113W i5 13500H</t>
+          <t>Asus Vivobook Flip TN3402YA-LZ188W R5 7530U</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>17.290.000 ₫</t>
+          <t>15.690.000 ₫</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Dell Inspiron 15 N3530 i7 1355U (N3530I716W1)</t>
+          <t>Lenovo Ideapad 3 15IAU7 i7 1255U (82RK00W4VN)</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>25.290.000 ₫</t>
+          <t>15.490.000 ₫</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Dell Inspiron 15 N3530 i5 1335U (N5I5489W1)</t>
+          <t>HP Pavilion 14-dv2075TU i5 1235U (7C0W2PA)</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>20.990.000 ₫</t>
+          <t>15.490.000 ₫</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Huawei MateBook D15 R7 5700U</t>
+          <t>HP Pavilion 14-dv2073TU i5 1235U (7C0P2PA)</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>12.490.000 ₫</t>
+          <t>16.890.000 ₫</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Asus Vivobook X1504VA-NJ526W i5 1335U</t>
+          <t>Asus Vivobook 15 OLED A1505VA-L1113W i5 13500H</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>15.690.000 ₫</t>
+          <t>17.390.000 ₫</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Lenovo IdeaPad Slim 5 16IAH8 i5 12450H (83BG001XVN)</t>
+          <t>Dell Inspiron 15 N3530 i7 1355U (N3530I716W1)</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>15.690.000 ₫</t>
+          <t>25.290.000 ₫</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>MSI Modern 14 C7M-221VN R7 7730U</t>
+          <t>Dell Inspiron 15 N3530 i5 1335U (N5I5489W1)</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>11.990.000 ₫</t>
+          <t>20.990.000 ₫</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Asus Vivobook E1504FA-NJ426W R3 7320U</t>
+          <t>Huawei MateBook D15 R7 5700U</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>8.490.000 ₫</t>
+          <t>12.490.000 ₫</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Asus Vivobook A1405VA-KM059W i5 13500H</t>
+          <t>Asus Vivobook X1504VA-NJ526W i5 1335U</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>16.290.000 ₫</t>
+          <t>15.690.000 ₫</t>
         </is>
       </c>
     </row>
